--- a/Data/train/woe_info.xlsx
+++ b/Data/train/woe_info.xlsx
@@ -7,19 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Pclass" sheetId="1" r:id="rId1"/>
-    <sheet name="Sex" sheetId="2" r:id="rId2"/>
-    <sheet name="SibSp" sheetId="3" r:id="rId3"/>
-    <sheet name="Parch" sheetId="4" r:id="rId4"/>
-    <sheet name="Fare" sheetId="5" r:id="rId5"/>
-    <sheet name="IV" sheetId="6" r:id="rId6"/>
+    <sheet name="Age" sheetId="1" r:id="rId1"/>
+    <sheet name="Pclass" sheetId="2" r:id="rId2"/>
+    <sheet name="Sex" sheetId="3" r:id="rId3"/>
+    <sheet name="SibSp" sheetId="4" r:id="rId4"/>
+    <sheet name="Parch" sheetId="5" r:id="rId5"/>
+    <sheet name="Fare" sheetId="6" r:id="rId6"/>
+    <sheet name="IV" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Groups</t>
   </si>
@@ -36,6 +37,18 @@
     <t>WOE</t>
   </si>
   <si>
+    <t>Age &lt;= 4.0</t>
+  </si>
+  <si>
+    <t>( 4.0 &lt; Age &lt;= 17.0]</t>
+  </si>
+  <si>
+    <t>Age &gt; 17.0</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>Pclass &lt;= 1.0</t>
   </si>
   <si>
@@ -82,6 +95,9 @@
   </si>
   <si>
     <t>IV</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
   <si>
     <t>Pclass</t>
@@ -211,6 +227,49 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Age.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="0"/>
+          <a:ext cx="5487650" cy="3658433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="Pclass.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -237,7 +296,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -280,7 +339,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -323,7 +382,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -366,7 +425,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -694,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,13 +784,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
-        <v>1.003915955509096</v>
+        <v>1.11074004079423</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -742,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2">
-        <v>0.3644848445981264</v>
+        <v>0.242651410737953</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -759,13 +818,30 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="D4" s="2">
         <v>372</v>
       </c>
       <c r="E4" s="2">
-        <v>-0.6664826567146915</v>
+        <v>-0.1053193184674688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.4972174864694358</v>
       </c>
     </row>
   </sheetData>
@@ -775,6 +851,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>136</v>
+      </c>
+      <c r="D2" s="2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.003915955509096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.3644848445981264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2">
+        <v>372</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.6664826567146915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -804,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>109</v>
@@ -821,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>233</v>
@@ -839,7 +997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -869,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>210</v>
@@ -886,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>129</v>
@@ -903,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -921,7 +1079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -951,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>233</v>
@@ -968,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>109</v>
@@ -986,7 +1144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1016,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
@@ -1033,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -1050,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
@@ -1067,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>66</v>
@@ -1085,9 +1243,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1095,49 +1253,57 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
-        <v>0.500949737583947</v>
+        <v>0.1421534123955945</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>1.341681413555649</v>
+        <v>0.500949737583947</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>0.1656841285973107</v>
+        <v>1.341681413555649</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
-        <v>0.08971808134998437</v>
+        <v>0.1656841285973107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
+        <v>0.08971808134998437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
         <v>0.5806351810096326</v>
       </c>
     </row>
